--- a/exercise_5_report.xlsx
+++ b/exercise_5_report.xlsx
@@ -115,16 +115,7 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve"> Resource Leak, with Database Transactions Not Closed Properly, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">in processTransaction function, in TransactionProcessor.php</t>
+      <t xml:space="preserve"> Resource Leak, with Database Transactions Not Closed Properly, in processTransaction function, in TransactionProcessor.php</t>
     </r>
   </si>
   <si>
@@ -256,7 +247,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -286,12 +277,6 @@
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Aptos Narrow"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -464,8 +449,8 @@
   </sheetPr>
   <dimension ref="A1:D11"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E7" activeCellId="0" sqref="E7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C7" activeCellId="0" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
